--- a/src/main/java/data/API.xlsx
+++ b/src/main/java/data/API.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Tester\LeQuangTam\eclipse-workspace\Test_API\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="5" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" r:id="rId1" sheetId="1"/>
-    <sheet name="Register" r:id="rId2" sheetId="2"/>
-    <sheet name="Profile" r:id="rId3" sheetId="3"/>
-    <sheet name="Refresh" r:id="rId4" sheetId="4"/>
-    <sheet name="Logout" r:id="rId5" sheetId="5"/>
-    <sheet name="ChangePassword" r:id="rId6" sheetId="6"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="Profile" sheetId="3" r:id="rId3"/>
+    <sheet name="Refresh" sheetId="4" r:id="rId4"/>
+    <sheet name="Logout" sheetId="5" r:id="rId5"/>
+    <sheet name="ChangePassword" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
   <si>
     <t>Login</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Code: 200</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>TC01_Logout</t>
   </si>
   <si>
@@ -300,10 +297,6 @@
   <si>
     <t>Accept: application/json
 Authorization: Bearer {{ACCESS_TOKEN}}</t>
-  </si>
-  <si>
-    <t>Message": "Request handled successfully"
-Code: 200</t>
   </si>
   <si>
     <t>/auth/change-password</t>
@@ -362,14 +355,24 @@
 Code: 400</t>
   </si>
   <si>
-    <t/>
+    <t>TC03_ChangePasswordWithInvalidData</t>
+  </si>
+  <si>
+    <t>{
+  "current_password": "456456456",
+  "new_password": "789789789",
+  "new_password_confirmation": "456456456"
+}</t>
+  </si>
+  <si>
+    <t>Message: "Request handled successfully"
+Code: 200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,47 +473,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -527,10 +530,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -565,7 +568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -600,7 +603,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -694,21 +697,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -725,7 +728,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -777,32 +780,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="48.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="16.5" r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +817,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row customFormat="1" ht="16.5" r="2" s="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -840,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="66" r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -866,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="66" r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -892,7 +895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="66" r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -918,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="66" r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -944,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="66" r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -970,9 +973,9 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="66" r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -984,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
@@ -996,9 +999,9 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="66" r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -1010,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
@@ -1023,37 +1026,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="32.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="37.28515625" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="17.25" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="115.5" r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="115.5" r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="115.5" r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="115.5" r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="115.5" r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1210,37 +1213,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="32.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="40.140625" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="17.25" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="409.5" r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
@@ -1290,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="33" r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1305,46 +1308,46 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="32.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="37.28515625" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="17.25" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="66" r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1395,111 +1398,106 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="32.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="37.28515625" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="17.25" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row customFormat="1" r="2" s="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row ht="49.5" r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G2" sqref="G2:H3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="32.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="49.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="49.42578125" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="49.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1525,59 +1523,85 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="99" r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="99" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row ht="99" r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="99" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:8" ht="99" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>